--- a/biology/Biochimie/Actinine/Actinine.xlsx
+++ b/biology/Biochimie/Actinine/Actinine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'actinine est une protéine de pontage ou de coiffage des faisceaux d'actine. L'alpha actinine est notamment retrouvée dans les myofibrilles, car elle assure notamment la liaison entre les filaments fins antiparallèles (actine) de deux sarcomères voisins.
 </t>
